--- a/data-set/price2017.xlsx
+++ b/data-set/price2017.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="3915"/>
   </bookViews>
   <sheets>
-    <sheet name="이마트은평점2017" sheetId="1" r:id="rId1"/>
+    <sheet name="price2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
